--- a/python/dataset/z_2.2/parts/part5.xlsx
+++ b/python/dataset/z_2.2/parts/part5.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1998"/>
+  <dimension ref="A1:H2002"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60855,6 +60855,128 @@
         </is>
       </c>
     </row>
+    <row r="1999">
+      <c r="A1999" t="n">
+        <v>537224</v>
+      </c>
+      <c r="B1999" t="n">
+        <v>21187</v>
+      </c>
+      <c r="C1999" t="inlineStr">
+        <is>
+          <t xml:space="preserve">WHITE BELL HONEYCOMB PAPER GARLAND </t>
+        </is>
+      </c>
+      <c r="D1999" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1999" s="2" t="n">
+        <v>40517.68333333333</v>
+      </c>
+      <c r="F1999" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="G1999" t="n">
+        <v>13174</v>
+      </c>
+      <c r="H1999" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+    </row>
+    <row r="2000">
+      <c r="A2000" t="n">
+        <v>537224</v>
+      </c>
+      <c r="B2000" t="inlineStr">
+        <is>
+          <t>84809A</t>
+        </is>
+      </c>
+      <c r="C2000" t="inlineStr">
+        <is>
+          <t>WHITE CHRYSANTHEMUMS ART FLOWER</t>
+        </is>
+      </c>
+      <c r="D2000" t="n">
+        <v>6</v>
+      </c>
+      <c r="E2000" s="2" t="n">
+        <v>40517.68333333333</v>
+      </c>
+      <c r="F2000" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G2000" t="n">
+        <v>13174</v>
+      </c>
+      <c r="H2000" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+    </row>
+    <row r="2001">
+      <c r="A2001" t="n">
+        <v>537224</v>
+      </c>
+      <c r="B2001" t="n">
+        <v>79321</v>
+      </c>
+      <c r="C2001" t="inlineStr">
+        <is>
+          <t>CHILLI LIGHTS</t>
+        </is>
+      </c>
+      <c r="D2001" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2001" s="2" t="n">
+        <v>40517.68333333333</v>
+      </c>
+      <c r="F2001" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="G2001" t="n">
+        <v>13174</v>
+      </c>
+      <c r="H2001" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+    </row>
+    <row r="2002">
+      <c r="A2002" t="n">
+        <v>537224</v>
+      </c>
+      <c r="B2002" t="n">
+        <v>72741</v>
+      </c>
+      <c r="C2002" t="inlineStr">
+        <is>
+          <t>GRAND CHOCOLATECANDLE</t>
+        </is>
+      </c>
+      <c r="D2002" t="n">
+        <v>9</v>
+      </c>
+      <c r="E2002" s="2" t="n">
+        <v>40517.68333333333</v>
+      </c>
+      <c r="F2002" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="G2002" t="n">
+        <v>13174</v>
+      </c>
+      <c r="H2002" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/python/dataset/z_2.2/parts/part5.xlsx
+++ b/python/dataset/z_2.2/parts/part5.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
